--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/take2_fmu/Dropbox/Rtest/APA_telepsychology_evidence_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26797F6A-F5FA-DA45-AAD5-6420023617D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B0478-6C79-7A4C-887A-DF233B9B36AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web掲載用" sheetId="17" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1014">
   <si>
     <t>担当者</t>
   </si>
@@ -765,9 +765,6 @@
   </si>
   <si>
     <t>Cohen, J. A., Mannarino, A. P., &amp; Deblinger, E. (2017). Treating trauma and traumatic grief in children and adolescents (2nd ed.). New York, NY: Guilford Press.</t>
-  </si>
-  <si>
-    <t>枝廣</t>
   </si>
   <si>
     <t>autism, co-occurring anxiety, intervention, feasibility, telehealth</t>
@@ -1913,12 +1910,6 @@
 </t>
   </si>
   <si>
-    <t>お名前</t>
-  </si>
-  <si>
-    <t>ご所属</t>
-  </si>
-  <si>
     <t>不安症</t>
   </si>
   <si>
@@ -3724,9 +3715,6 @@
   <si>
     <t>記述的レビュー
 ・RCT11個、統合せず、個々の研究を提供の仕方とセラピストの関与度で分類し整理</t>
-  </si>
-  <si>
-    <t>枝廣和憲</t>
   </si>
   <si>
     <t>北田隆義</t>
@@ -4176,19 +4164,6 @@
   </si>
   <si>
     <t>このコロナ禍の中でも前に進もうとするみなさんとつながって自分の無力さを少しでも払拭したかったことと、今後の支援のあり方の１つとして遠隔での心理支援を知る機会を得たかったことからこのプロジェクトに参加しました。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>きもち</t>
-    </r>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -4288,6 +4263,52 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>自宅で一人思い悩む方々に必要な支援を届けることができれば思い、今回のプロジェクトに参加しました。遠隔医療が整備されることで医療が均てん化され、どこにいても同じクオリティの心理的支援がうけられる日が訪れることを祈って、、、</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>対面での支援を迷う日が来るとは思っていませんでした。少しでも希望を見つけたく、本当に数歩だけ参加させていただきました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コロナ禍の中で，対面以外のセラピーの届け方があるのではと感じていたので，微力ですが参加しました。我が国で遠隔支援の体制が整うことで，より多くの方が心理的支援にアクセスできるようになることを願っています。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>非臨床家の自分にできることはせいぜい後方支援だと尻込みをしていたら，実際に後方支援の枠組みを次々に整えていたのは前線にいる臨床家の人たちでした。恥ずかしく思って気がついたらこのプロジェクトへの呼びかけに応じていました。この私的打ち消しがどこかで誰かの助けになることを願っています。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コロナ禍の現状を鑑みて、自分でも何かできることはないかと思い、微力ながらこのプロジェクトに参加させていただきました。こうした取り組みが、少しでも皆様のお役にたちましたら幸いです。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>きもち</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>枝廣和憲</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(熱い想いは胸の内に)</t>
+    <rPh sb="1" eb="2">
+      <t>アツイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムネノ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -4296,7 +4317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$¥-411]#,##0.00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4449,6 +4470,11 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4503,7 +4529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4628,6 +4654,10 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4850,8 +4880,8 @@
   </sheetPr>
   <dimension ref="A1:AB997"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4867,7 +4897,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="30">
       <c r="A1" s="11" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -4888,28 +4918,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>7</v>
@@ -4933,7 +4963,7 @@
     </row>
     <row r="2" spans="1:28" ht="33.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>21</v>
@@ -4955,25 +4985,25 @@
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="K2" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>574</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>577</v>
       </c>
       <c r="P2" s="13" t="s">
         <v>59</v>
@@ -4997,7 +5027,7 @@
     </row>
     <row r="3" spans="1:28" ht="33.75" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>99</v>
@@ -5019,16 +5049,16 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>103</v>
@@ -5061,7 +5091,7 @@
     </row>
     <row r="4" spans="1:28" ht="33.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>107</v>
@@ -5083,22 +5113,22 @@
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="14" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>110</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>111</v>
@@ -5125,7 +5155,7 @@
     </row>
     <row r="5" spans="1:28" ht="33.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>199</v>
@@ -5143,29 +5173,29 @@
         <v>91</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>202</v>
       </c>
       <c r="K5" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>627</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>203</v>
@@ -5189,50 +5219,50 @@
     </row>
     <row r="6" spans="1:28" ht="33.75" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>259</v>
       </c>
       <c r="E6" s="14">
         <v>2018</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>208</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O6" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>29</v>
@@ -5253,53 +5283,53 @@
     </row>
     <row r="7" spans="1:28" ht="33.75" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>370</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E7" s="20">
         <v>2014</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K7" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="P7" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>377</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="1"/>
@@ -5314,56 +5344,56 @@
     </row>
     <row r="8" spans="1:28" ht="33.75" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>424</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>425</v>
       </c>
       <c r="E8" s="13">
         <v>2015</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="K8" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>762</v>
-      </c>
       <c r="P8" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -5377,56 +5407,56 @@
     </row>
     <row r="9" spans="1:28" ht="33.75" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>413</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>414</v>
       </c>
       <c r="E9" s="24">
         <v>2019</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="K9" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="O9" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="L9" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>752</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>753</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>417</v>
-      </c>
       <c r="P9" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -5440,56 +5470,56 @@
     </row>
     <row r="10" spans="1:28" ht="33.75" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="E10" s="17">
         <v>2019</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="13" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="K10" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="O10" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>770</v>
-      </c>
       <c r="P10" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -5503,56 +5533,56 @@
     </row>
     <row r="11" spans="1:28" ht="33.75" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>214</v>
       </c>
       <c r="E11" s="24">
         <v>2016</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K11" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="N11" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="O11" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>636</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>637</v>
-      </c>
       <c r="P11" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="Q11" s="24" t="s">
-        <v>217</v>
-      </c>
       <c r="R11" s="24" t="s">
-        <v>211</v>
+        <v>1012</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5567,56 +5597,56 @@
     </row>
     <row r="12" spans="1:28" ht="33.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
         <v>483</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>484</v>
       </c>
       <c r="E12" s="25">
         <v>2015</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K12" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>804</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>486</v>
-      </c>
       <c r="O12" s="25" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="25" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5631,7 +5661,7 @@
     </row>
     <row r="13" spans="1:28" ht="33.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>96</v>
@@ -5649,35 +5679,35 @@
         <v>57</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="R13" s="14" t="s">
         <v>95</v>
@@ -5695,53 +5725,53 @@
     </row>
     <row r="14" spans="1:28" ht="33.75" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>488</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="E14" s="13">
         <v>2017</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="K14" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="M14" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q14" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>809</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="R14" s="13" t="s">
         <v>42</v>
@@ -5759,53 +5789,53 @@
     </row>
     <row r="15" spans="1:28" ht="33.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E15" s="13">
         <v>2020</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="J15" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>707</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>710</v>
       </c>
       <c r="R15" s="13" t="s">
         <v>42</v>
@@ -5823,7 +5853,7 @@
     </row>
     <row r="16" spans="1:28" ht="33.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>50</v>
@@ -5832,7 +5862,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E16" s="13">
         <v>2013</v>
@@ -5845,10 +5875,10 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>53</v>
@@ -5857,13 +5887,13 @@
         <v>54</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>48</v>
@@ -5887,7 +5917,7 @@
     </row>
     <row r="17" spans="1:28" ht="33.75" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>21</v>
@@ -5909,22 +5939,22 @@
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K17" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>589</v>
       </c>
       <c r="O17" s="13" t="s">
         <v>75</v>
@@ -5951,7 +5981,7 @@
     </row>
     <row r="18" spans="1:28" ht="33.75" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>21</v>
@@ -5973,7 +6003,7 @@
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>84</v>
@@ -5988,7 +6018,7 @@
         <v>83</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="O18" s="13" t="s">
         <v>85</v>
@@ -6000,7 +6030,7 @@
         <v>87</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6015,7 +6045,7 @@
     </row>
     <row r="19" spans="1:28" ht="33.75" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>21</v>
@@ -6037,7 +6067,7 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>58</v>
@@ -6052,7 +6082,7 @@
         <v>169</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="O19" s="13" t="s">
         <v>170</v>
@@ -6079,7 +6109,7 @@
     </row>
     <row r="20" spans="1:28" ht="33.75" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>173</v>
@@ -6113,13 +6143,13 @@
         <v>178</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>59</v>
@@ -6143,7 +6173,7 @@
     </row>
     <row r="21" spans="1:28" ht="33.75" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>181</v>
@@ -6161,7 +6191,7 @@
         <v>184</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="24" t="s">
@@ -6171,19 +6201,19 @@
         <v>71</v>
       </c>
       <c r="K21" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="O21" s="13" t="s">
         <v>611</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>614</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>185</v>
@@ -6207,7 +6237,7 @@
     </row>
     <row r="22" spans="1:28" ht="33.75" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>193</v>
@@ -6216,7 +6246,7 @@
         <v>194</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E22" s="13">
         <v>2014</v>
@@ -6225,29 +6255,29 @@
         <v>195</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>196</v>
       </c>
       <c r="K22" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="N22" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="O22" s="13" t="s">
         <v>620</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>623</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>48</v>
@@ -6271,50 +6301,50 @@
     </row>
     <row r="23" spans="1:28" ht="33.75" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="E23" s="17">
         <v>2014</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="17" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="K23" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O23" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>640</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>641</v>
-      </c>
       <c r="P23" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="13" t="s">
         <v>29</v>
@@ -6335,25 +6365,25 @@
     </row>
     <row r="24" spans="1:28" ht="33.75" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>264</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E24" s="13">
         <v>2013</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="24" t="s">
@@ -6363,16 +6393,16 @@
         <v>71</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>29</v>
@@ -6381,7 +6411,7 @@
         <v>29</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>42</v>
@@ -6399,47 +6429,47 @@
     </row>
     <row r="25" spans="1:28" ht="33.75" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="E25" s="13">
         <v>2014</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K25" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="N25" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="O25" s="13" t="s">
         <v>685</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>688</v>
       </c>
       <c r="P25" s="13" t="s">
         <v>29</v>
@@ -6448,7 +6478,7 @@
         <v>29</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -6463,47 +6493,47 @@
     </row>
     <row r="26" spans="1:28" ht="33.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>298</v>
       </c>
       <c r="E26" s="24">
         <v>2015</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="24" t="s">
         <v>71</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K26" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="M26" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="M26" s="27" t="s">
-        <v>302</v>
-      </c>
       <c r="N26" s="24" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>29</v>
@@ -6512,7 +6542,7 @@
         <v>29</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -6527,56 +6557,56 @@
     </row>
     <row r="27" spans="1:28" ht="33.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="E27" s="13">
         <v>2019</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="L27" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="O27" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="M27" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>383</v>
-      </c>
       <c r="P27" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q27" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -6590,53 +6620,53 @@
     </row>
     <row r="28" spans="1:28" ht="33.75" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>394</v>
       </c>
       <c r="E28" s="17">
         <v>2017</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="K28" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="N28" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="O28" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="M28" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>738</v>
-      </c>
       <c r="P28" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R28" s="17" t="s">
         <v>23</v>
@@ -6653,16 +6683,16 @@
     </row>
     <row r="29" spans="1:28" ht="33.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>409</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>410</v>
       </c>
       <c r="E29" s="24">
         <v>2013</v>
@@ -6671,38 +6701,38 @@
         <v>195</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L29" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="O29" s="24" t="s">
         <v>747</v>
       </c>
-      <c r="M29" s="24" t="s">
-        <v>748</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>749</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>750</v>
-      </c>
       <c r="P29" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R29" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -6716,50 +6746,50 @@
     </row>
     <row r="30" spans="1:28" ht="33.75" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>475</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>476</v>
       </c>
       <c r="E30" s="14">
         <v>2014</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K30" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="O30" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>800</v>
-      </c>
       <c r="P30" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="14" t="s">
         <v>29</v>
@@ -6780,7 +6810,7 @@
     </row>
     <row r="31" spans="1:28" ht="33.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>24</v>
@@ -6798,29 +6828,29 @@
         <v>27</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>28</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>30</v>
@@ -6844,56 +6874,56 @@
     </row>
     <row r="32" spans="1:28" ht="33.75" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>440</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="E32" s="13">
         <v>2013</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K32" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="O32" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="P32" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q32" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="M32" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="P32" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>775</v>
-      </c>
       <c r="R32" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -6908,56 +6938,56 @@
     </row>
     <row r="33" spans="1:28" ht="33.75" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>445</v>
       </c>
       <c r="E33" s="13">
         <v>2008</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K33" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="L33" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>447</v>
-      </c>
       <c r="M33" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N33" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="O33" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="O33" s="13" t="s">
-        <v>776</v>
-      </c>
       <c r="P33" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -6972,7 +7002,7 @@
     </row>
     <row r="34" spans="1:28" ht="33.75" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>43</v>
@@ -6990,29 +7020,29 @@
         <v>46</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>47</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>48</v>
@@ -7036,47 +7066,47 @@
     </row>
     <row r="35" spans="1:28" ht="33.75" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>307</v>
       </c>
       <c r="E35" s="24">
         <v>2013</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>58</v>
       </c>
       <c r="K35" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="M35" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="M35" s="27" t="s">
+      <c r="N35" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N35" s="24" t="s">
-        <v>312</v>
-      </c>
       <c r="O35" s="24" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>29</v>
@@ -7085,7 +7115,7 @@
         <v>29</v>
       </c>
       <c r="R35" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -7100,56 +7130,56 @@
     </row>
     <row r="36" spans="1:28" ht="33.75" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>464</v>
       </c>
       <c r="E36" s="13">
         <v>2011</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -7164,16 +7194,16 @@
     </row>
     <row r="37" spans="1:28" ht="33.75" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="E37" s="13">
         <v>2006</v>
@@ -7182,7 +7212,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13" t="s">
@@ -7192,25 +7222,25 @@
         <v>190</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O37" s="13" t="s">
         <v>29</v>
       </c>
       <c r="P37" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q37" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="R37" s="13" t="s">
         <v>9</v>
@@ -7228,46 +7258,46 @@
     </row>
     <row r="38" spans="1:28" ht="33.75" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="E38" s="13">
         <v>2014</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>29</v>
@@ -7294,22 +7324,22 @@
     </row>
     <row r="39" spans="1:28" ht="33.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="D39" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="E39" s="14">
         <v>2013</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>22</v>
@@ -7319,31 +7349,31 @@
         <v>190</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="K39" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="L39" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>699</v>
-      </c>
       <c r="P39" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q39" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="Q39" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="R39" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -7358,56 +7388,56 @@
     </row>
     <row r="40" spans="1:28" ht="33.75" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="D40" s="14" t="s">
         <v>471</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>472</v>
       </c>
       <c r="E40" s="14">
         <v>2012</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="L40" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>796</v>
-      </c>
       <c r="P40" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q40" s="14" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -7422,56 +7452,56 @@
     </row>
     <row r="41" spans="1:28" ht="33.75" customHeight="1">
       <c r="A41" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="E41" s="17">
         <v>2011</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M41" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="N41" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="N41" s="17" t="s">
-        <v>293</v>
-      </c>
       <c r="O41" s="17" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="P41" s="17" t="s">
         <v>29</v>
       </c>
       <c r="Q41" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -7514,19 +7544,19 @@
         <v>190</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N42" s="17" t="s">
         <v>189</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="P42" s="17" t="s">
         <v>191</v>
@@ -7568,11 +7598,11 @@
         <v>14</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>18</v>
@@ -7584,7 +7614,7 @@
         <v>16</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>17</v>
@@ -7632,11 +7662,11 @@
         <v>35</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>18</v>
@@ -7648,7 +7678,7 @@
         <v>37</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N44" s="13" t="s">
         <v>38</v>
@@ -7696,14 +7726,14 @@
         <v>91</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>115</v>
@@ -7712,10 +7742,10 @@
         <v>116</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="O45" s="13" t="s">
         <v>29</v>
@@ -7776,7 +7806,7 @@
         <v>124</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N46" s="13" t="s">
         <v>125</v>
@@ -7824,14 +7854,14 @@
         <v>131</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>132</v>
@@ -7892,7 +7922,7 @@
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J48" s="13" t="s">
         <v>144</v>
@@ -7904,7 +7934,7 @@
         <v>142</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N48" s="13" t="s">
         <v>143</v>
@@ -7955,10 +7985,10 @@
         <v>22</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="J49" s="13" t="s">
         <v>144</v>
@@ -7970,7 +8000,7 @@
         <v>152</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>153</v>
@@ -8009,7 +8039,7 @@
         <v>156</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E50" s="13">
         <v>2017</v>
@@ -8022,10 +8052,10 @@
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>158</v>
@@ -8034,7 +8064,7 @@
         <v>159</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N50" s="13" t="s">
         <v>160</v>
@@ -8086,25 +8116,25 @@
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L51" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="O51" s="13" t="s">
         <v>629</v>
-      </c>
-      <c r="M51" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="N51" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="O51" s="13" t="s">
-        <v>632</v>
       </c>
       <c r="P51" s="13" t="s">
         <v>209</v>
@@ -8134,47 +8164,47 @@
         <v>21</v>
       </c>
       <c r="C52" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="E52" s="13">
         <v>2010</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K52" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="N52" s="13" t="s">
         <v>647</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>650</v>
       </c>
       <c r="O52" s="13" t="s">
         <v>29</v>
       </c>
       <c r="P52" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q52" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="Q52" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="R52" s="13" t="s">
         <v>9</v>
@@ -8195,52 +8225,52 @@
         <v>10</v>
       </c>
       <c r="B53" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="E53" s="13">
         <v>2015</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="L53" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="O53" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="M53" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="N53" s="13" t="s">
+      <c r="P53" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="O53" s="13" t="s">
-        <v>656</v>
-      </c>
-      <c r="P53" s="13" t="s">
-        <v>657</v>
-      </c>
       <c r="Q53" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R53" s="13" t="s">
         <v>9</v>
@@ -8261,50 +8291,50 @@
         <v>10</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>250</v>
       </c>
       <c r="E54" s="13">
         <v>2020</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="N54" s="13" t="s">
         <v>135</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="Q54" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="R54" s="13" t="s">
         <v>9</v>
@@ -8325,47 +8355,47 @@
         <v>10</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="E55" s="14">
         <v>2012</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L55" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="M55" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="N55" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q55" s="13" t="s">
         <v>29</v>
@@ -8389,19 +8419,19 @@
         <v>10</v>
       </c>
       <c r="B56" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="E56" s="13">
         <v>2019</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>22</v>
@@ -8414,16 +8444,16 @@
         <v>71</v>
       </c>
       <c r="K56" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="N56" s="13" t="s">
         <v>680</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="M56" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>683</v>
       </c>
       <c r="O56" s="13" t="s">
         <v>29</v>
@@ -8432,7 +8462,7 @@
         <v>29</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R56" s="13" t="s">
         <v>9</v>
@@ -8453,53 +8483,53 @@
         <v>10</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="E57" s="17">
         <v>2016</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J57" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K57" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="L57" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="L57" s="17" t="s">
+      <c r="M57" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="M57" s="17" t="s">
+      <c r="N57" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="N57" s="17" t="s">
-        <v>319</v>
-      </c>
       <c r="O57" s="17" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="P57" s="29" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="Q57" s="24" t="s">
         <v>29</v>
       </c>
       <c r="R57" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -8517,46 +8547,46 @@
         <v>10</v>
       </c>
       <c r="B58" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="D58" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>329</v>
       </c>
       <c r="E58" s="24">
         <v>2012</v>
       </c>
       <c r="F58" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="K58" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="G58" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>944</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>954</v>
-      </c>
-      <c r="J58" s="24" t="s">
+      <c r="L58" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="M58" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="N58" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="O58" s="24" t="s">
         <v>335</v>
-      </c>
-      <c r="K58" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="N58" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="O58" s="24" t="s">
-        <v>336</v>
       </c>
       <c r="P58" s="24" t="s">
         <v>59</v>
@@ -8581,53 +8611,53 @@
         <v>10</v>
       </c>
       <c r="B59" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="D59" s="17" t="s">
         <v>385</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>386</v>
       </c>
       <c r="E59" s="17">
         <v>2015</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K59" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="N59" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="L59" s="13" t="s">
+      <c r="O59" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="M59" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>728</v>
-      </c>
       <c r="P59" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q59" s="17" t="s">
         <v>29</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -8644,50 +8674,50 @@
         <v>10</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="D60" s="22" t="s">
         <v>403</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>404</v>
       </c>
       <c r="E60" s="13">
         <v>2011</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L60" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="O60" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="M60" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="N60" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="O60" s="13" t="s">
+      <c r="P60" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q60" s="13" t="s">
         <v>406</v>
-      </c>
-      <c r="P60" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q60" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="R60" s="13" t="s">
         <v>9</v>
@@ -8704,22 +8734,22 @@
     </row>
     <row r="61" spans="1:28" ht="53.25" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="D61" s="14" t="s">
         <v>450</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>451</v>
       </c>
       <c r="E61" s="14">
         <v>2013</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>22</v>
@@ -8732,28 +8762,28 @@
         <v>179</v>
       </c>
       <c r="K61" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="O61" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="L61" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N61" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>780</v>
-      </c>
       <c r="P61" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
@@ -8768,7 +8798,7 @@
     </row>
     <row r="62" spans="1:28" ht="53.25" customHeight="1">
       <c r="A62" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>61</v>
@@ -8790,25 +8820,25 @@
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J62" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K62" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="O62" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="M62" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>581</v>
       </c>
       <c r="P62" s="13" t="s">
         <v>66</v>
@@ -8832,7 +8862,7 @@
     </row>
     <row r="63" spans="1:28" ht="53.25" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>67</v>
@@ -8860,19 +8890,19 @@
         <v>71</v>
       </c>
       <c r="K63" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="O63" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="M63" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="O63" s="13" t="s">
-        <v>585</v>
       </c>
       <c r="P63" s="13" t="s">
         <v>29</v>
@@ -8896,7 +8926,7 @@
     </row>
     <row r="64" spans="1:28" ht="52.5" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>88</v>
@@ -8918,7 +8948,7 @@
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J64" s="13" t="s">
         <v>58</v>
@@ -8927,16 +8957,16 @@
         <v>92</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>93</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="O64" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P64" s="13" t="s">
         <v>29</v>
@@ -8960,56 +8990,56 @@
     </row>
     <row r="65" spans="1:28" ht="52.5" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="E65" s="13">
         <v>2015</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K65" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="O65" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="L65" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="M65" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="N65" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="O65" s="13" t="s">
+      <c r="P65" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="P65" s="13" t="s">
+      <c r="Q65" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="Q65" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="R65" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -9024,56 +9054,56 @@
     </row>
     <row r="66" spans="1:28" ht="52.5" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="D66" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>233</v>
       </c>
       <c r="E66" s="24">
         <v>2016</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="35"/>
       <c r="I66" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="L66" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M66" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="M66" s="24" t="s">
+      <c r="N66" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="O66" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="P66" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="N66" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="O66" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="P66" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="Q66" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R66" s="24" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -9088,53 +9118,53 @@
     </row>
     <row r="67" spans="1:28" ht="52.5" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B67" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="D67" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>389</v>
       </c>
       <c r="E67" s="17">
         <v>2019</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K67" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="N67" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="L67" s="17" t="s">
+      <c r="O67" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="M67" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="N67" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="O67" s="17" t="s">
-        <v>733</v>
-      </c>
       <c r="P67" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q67" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R67" s="17" t="s">
         <v>23</v>
@@ -9151,53 +9181,53 @@
     </row>
     <row r="68" spans="1:28" ht="52.5" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="D68" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>399</v>
       </c>
       <c r="E68" s="17">
         <v>2017</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="K68" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="N68" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="L68" s="17" t="s">
+      <c r="O68" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="M68" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>742</v>
-      </c>
-      <c r="O68" s="17" t="s">
-        <v>743</v>
-      </c>
       <c r="P68" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R68" s="17" t="s">
         <v>23</v>
@@ -9214,56 +9244,56 @@
     </row>
     <row r="69" spans="1:28" ht="52.5" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="D69" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>429</v>
       </c>
       <c r="E69" s="24">
         <v>2017</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="24"/>
       <c r="I69" s="24" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="K69" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="L69" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="M69" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="N69" s="24" t="s">
         <v>763</v>
       </c>
-      <c r="L69" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="M69" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="N69" s="24" t="s">
-        <v>766</v>
-      </c>
       <c r="O69" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="P69" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q69" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="P69" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q69" s="24" t="s">
+      <c r="R69" s="24" t="s">
         <v>432</v>
-      </c>
-      <c r="R69" s="24" t="s">
-        <v>433</v>
       </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -9277,53 +9307,53 @@
     </row>
     <row r="70" spans="1:28" ht="52.5" customHeight="1">
       <c r="A70" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="D70" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="E70" s="17">
         <v>2012</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="K70" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="N70" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="O70" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="L70" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="M70" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="N70" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="O70" s="17" t="s">
-        <v>757</v>
-      </c>
       <c r="P70" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R70" s="17" t="s">
         <v>23</v>
@@ -9340,53 +9370,53 @@
     </row>
     <row r="71" spans="1:28" ht="52.5" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C71" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>454</v>
       </c>
       <c r="E71" s="13">
         <v>2018</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H71" s="24"/>
       <c r="I71" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L71" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="M71" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="P71" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q71" s="13" t="s">
         <v>781</v>
-      </c>
-      <c r="M71" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N71" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="O71" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="P71" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q71" s="13" t="s">
-        <v>784</v>
       </c>
       <c r="R71" s="13" t="s">
         <v>42</v>
@@ -9404,53 +9434,53 @@
     </row>
     <row r="72" spans="1:28" ht="52.5" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B72" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>459</v>
       </c>
       <c r="E72" s="13">
         <v>2017</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="24"/>
       <c r="I72" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M72" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q72" s="13" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="R72" s="13" t="s">
         <v>42</v>
@@ -9468,56 +9498,56 @@
     </row>
     <row r="73" spans="1:28" ht="52.5" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B73" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C73" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>478</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>479</v>
       </c>
       <c r="E73" s="24">
         <v>2016</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="M73" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N73" s="14" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q73" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R73" s="24" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -9532,56 +9562,56 @@
     </row>
     <row r="74" spans="1:28" ht="52.5" customHeight="1">
       <c r="A74" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="E74" s="13">
         <v>2017</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L74" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M74" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q74" s="13" t="s">
         <v>29</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -9596,16 +9626,16 @@
     </row>
     <row r="75" spans="1:28" ht="52.5" customHeight="1">
       <c r="A75" s="27" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C75" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>500</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>501</v>
       </c>
       <c r="E75" s="24">
         <v>2019</v>
@@ -9617,37 +9647,37 @@
         <v>22</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="L75" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N75" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="M75" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="N75" s="24" t="s">
-        <v>503</v>
-      </c>
       <c r="O75" s="24" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q75" s="24" t="s">
         <v>29</v>
       </c>
       <c r="R75" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -9665,41 +9695,41 @@
         <v>10</v>
       </c>
       <c r="B76" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C76" s="37" t="s">
-        <v>338</v>
-      </c>
       <c r="D76" s="33" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E76" s="36">
         <v>2018</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H76" s="36"/>
       <c r="I76" s="36" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="K76" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L76" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="L76" s="36" t="s">
+      <c r="M76" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="M76" s="36" t="s">
+      <c r="N76" s="36" t="s">
         <v>342</v>
-      </c>
-      <c r="N76" s="36" t="s">
-        <v>343</v>
       </c>
       <c r="O76" s="36" t="s">
         <v>29</v>
@@ -9729,13 +9759,13 @@
         <v>10</v>
       </c>
       <c r="B77" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C77" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="D77" s="36" t="s">
         <v>345</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>346</v>
       </c>
       <c r="E77" s="36">
         <v>2015</v>
@@ -9754,16 +9784,16 @@
         <v>71</v>
       </c>
       <c r="K77" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="L77" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="L77" s="36" t="s">
+      <c r="M77" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="M77" s="36" t="s">
+      <c r="N77" s="36" t="s">
         <v>349</v>
-      </c>
-      <c r="N77" s="36" t="s">
-        <v>350</v>
       </c>
       <c r="O77" s="36" t="s">
         <v>29</v>
@@ -9790,25 +9820,25 @@
     </row>
     <row r="78" spans="1:28" ht="14">
       <c r="A78" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="D78" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>353</v>
       </c>
       <c r="E78" s="17">
         <v>2011</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17" t="s">
@@ -9818,28 +9848,28 @@
         <v>190</v>
       </c>
       <c r="K78" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="L78" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="L78" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="M78" s="17" t="s">
         <v>29</v>
       </c>
       <c r="N78" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="O78" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="O78" s="17" t="s">
+      <c r="P78" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="P78" s="17" t="s">
-        <v>358</v>
       </c>
       <c r="Q78" s="17" t="s">
         <v>29</v>
       </c>
       <c r="R78" s="17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S78" s="4"/>
       <c r="T78" s="1"/>
@@ -9857,13 +9887,13 @@
         <v>10</v>
       </c>
       <c r="B79" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="D79" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>361</v>
       </c>
       <c r="E79" s="17">
         <v>2016</v>
@@ -9872,38 +9902,38 @@
         <v>57</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J79" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="N79" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="O79" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="K79" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="L79" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="M79" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="N79" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="O79" s="17" t="s">
+      <c r="P79" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="P79" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="Q79" s="17" t="s">
         <v>29</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -9921,41 +9951,41 @@
         <v>10</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E80" s="39">
         <v>2011</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="39" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J80" s="39" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="K80" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="L80" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="M80" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="N80" s="39" t="s">
         <v>717</v>
-      </c>
-      <c r="L80" s="39" t="s">
-        <v>718</v>
-      </c>
-      <c r="M80" s="39" t="s">
-        <v>719</v>
-      </c>
-      <c r="N80" s="39" t="s">
-        <v>720</v>
       </c>
       <c r="O80" s="39" t="s">
         <v>29</v>
@@ -9985,13 +10015,13 @@
         <v>10</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E81" s="13">
         <v>2015</v>
@@ -10000,7 +10030,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13" t="s">
@@ -10010,16 +10040,16 @@
         <v>190</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="L81" s="13" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M81" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="O81" s="13" t="s">
         <v>29</v>
@@ -10028,7 +10058,7 @@
         <v>29</v>
       </c>
       <c r="Q81" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R81" s="13" t="s">
         <v>9</v>
@@ -10046,56 +10076,56 @@
     </row>
     <row r="82" spans="1:28" ht="121.5" customHeight="1">
       <c r="A82" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="D82" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>508</v>
       </c>
       <c r="E82" s="13">
         <v>2019</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K82" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="L82" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="L82" s="13" t="s">
-        <v>511</v>
-      </c>
       <c r="M82" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N82" s="38" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q82" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="P82" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q82" s="13" t="s">
-        <v>513</v>
-      </c>
       <c r="R82" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -10110,56 +10140,56 @@
     </row>
     <row r="83" spans="1:28" ht="102.75" customHeight="1">
       <c r="A83" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B83" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="C83" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="D83" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="E83" s="13">
         <v>2019</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K83" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="M83" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="N83" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="L83" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="M83" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="N83" s="13" t="s">
+      <c r="O83" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="O83" s="13" t="s">
-        <v>521</v>
-      </c>
       <c r="P83" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q83" s="13" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -10174,47 +10204,47 @@
     </row>
     <row r="84" spans="1:28" ht="409.6">
       <c r="A84" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C84" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="D84" s="42" t="s">
         <v>494</v>
-      </c>
-      <c r="D84" s="42" t="s">
-        <v>495</v>
       </c>
       <c r="E84" s="18">
         <v>2017</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J84" s="42" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="K84" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="L84" s="42" t="s">
+        <v>928</v>
+      </c>
+      <c r="M84" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="N84" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="L84" s="42" t="s">
-        <v>931</v>
-      </c>
-      <c r="M84" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="N84" s="42" t="s">
+      <c r="O84" s="42" t="s">
         <v>498</v>
-      </c>
-      <c r="O84" s="42" t="s">
-        <v>499</v>
       </c>
       <c r="P84" s="42" t="s">
         <v>29</v>
@@ -10223,7 +10253,7 @@
         <v>29</v>
       </c>
       <c r="R84" s="42" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="S84" s="7"/>
       <c r="T84" s="1"/>
@@ -37644,7 +37674,7 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -37655,127 +37685,127 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -37783,280 +37813,280 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13">
       <c r="A49" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13">
       <c r="A50" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13">
       <c r="A51" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -38073,7 +38103,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -38083,63 +38113,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>1002</v>
+      <c r="A1" s="47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="C3" s="45"/>
+        <v>526</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="44" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="C4" s="45"/>
-    </row>
-    <row r="5" spans="1:3" ht="13">
+        <v>528</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="70">
       <c r="A5" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="C5" s="45"/>
+        <v>529</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -38147,41 +38183,43 @@
         <v>106</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="C8" s="45"/>
+        <v>531</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="44" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -38189,157 +38227,175 @@
         <v>9</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="44" t="s">
-        <v>933</v>
+      <c r="A15" s="47" t="s">
+        <v>1012</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>541</v>
-      </c>
-      <c r="C15" s="45"/>
+        <v>538</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="44" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" s="45"/>
+        <v>541</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="C17" s="45"/>
+        <v>542</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="44" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>546</v>
-      </c>
-      <c r="C18" s="45"/>
+        <v>543</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="44" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="44" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="C21" s="45"/>
+        <v>547</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="44" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>552</v>
-      </c>
-      <c r="C22" s="45"/>
+        <v>549</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>553</v>
-      </c>
-      <c r="C23" s="45"/>
+        <v>550</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="C24" s="45"/>
+        <v>551</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C25" s="45"/>
+        <v>552</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
